--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration-coarse.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration-coarse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79978A16-F2CE-45DF-8C88-16C9609E8FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFACA79-BA0C-43B7-A052-171EB6DD50DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="91770" yWindow="2190" windowWidth="22260" windowHeight="20805" activeTab="5" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
+    <workbookView xWindow="75540" yWindow="1335" windowWidth="22695" windowHeight="22200" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -44,9 +44,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="144">
   <si>
-    <t>Сведения о переселенцах внутри России</t>
-  </si>
-  <si>
     <t>ЦСК, "Ежегодник России" 1916</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
   </si>
   <si>
     <t>Страница "направления":</t>
-  </si>
-  <si>
-    <t>Распределение прямых переселенцев по направления миграции и обратных по губерниям временного водворения</t>
   </si>
   <si>
     <t>стр. I/104-109</t>
@@ -499,6 +493,12 @@
   <si>
     <t>прибытие
 1896-1910</t>
+  </si>
+  <si>
+    <t>Сведения о крестьянах-переселенцах и ходоках внутри России</t>
+  </si>
+  <si>
+    <t>Распределение прямых переселенцев по направлениям миграции и обратных по губерниям временного водворения</t>
   </si>
 </sst>
 </file>
@@ -614,12 +614,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -644,6 +638,12 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,50 +961,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3D8DA3-C95A-4A72-832D-39A8124B8B93}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1042,110 +1042,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="T1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="X1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="X1" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:26" ht="28.8">
       <c r="A2" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="F2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="N2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="R2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="V2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W2" s="9"/>
       <c r="X2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="Z2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -4566,14 +4566,14 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48">
         <v>843</v>
@@ -4582,13 +4582,13 @@
         <v>65</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I48">
         <v>235</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="2" t="e">
@@ -4643,7 +4643,7 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>716</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50">
@@ -4742,7 +4742,7 @@
         <v>221</v>
       </c>
       <c r="J50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="9"/>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>609</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="2">
@@ -4819,7 +4819,7 @@
         <v>387</v>
       </c>
       <c r="J51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="9"/>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>1352</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="2">
@@ -4950,7 +4950,7 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53">
@@ -4973,7 +4973,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="2">
@@ -5028,24 +5028,24 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -5118,7 +5118,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55">
@@ -5128,7 +5128,7 @@
         <v>7</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="2">
@@ -5183,7 +5183,7 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>11</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57">
@@ -5282,7 +5282,7 @@
         <v>8</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="2">
@@ -5337,7 +5337,7 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59">
@@ -5436,7 +5436,7 @@
         <v>25</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="2">
@@ -5491,7 +5491,7 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4">
         <v>1</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>44</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62">
@@ -5666,7 +5666,7 @@
         <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="9"/>
@@ -5720,30 +5720,30 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E63">
         <v>25</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="2" t="e">
@@ -5798,7 +5798,7 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
@@ -5811,7 +5811,7 @@
         <v>70</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64">
@@ -5821,7 +5821,7 @@
         <v>146</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="2">
@@ -5876,7 +5876,7 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>18</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65">
@@ -5899,7 +5899,7 @@
         <v>8</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="2">
@@ -5954,7 +5954,7 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>566</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66">
@@ -6031,7 +6031,7 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4">
         <v>0</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>116</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68">
@@ -6130,7 +6130,7 @@
         <v>734</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="2">
@@ -6194,7 +6194,7 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="9"/>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="8"/>
@@ -6392,51 +6392,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="C1" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="5"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="H1" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2">
         <v>2731476</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2">
         <v>1064508</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2">
         <v>175659</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C4:C6)</f>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2">
         <f>C4+C6</f>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="15">
         <f>100*(C4+C6)/C8</f>
@@ -6691,43 +6691,43 @@
   <sheetData>
     <row r="1" spans="1:16" ht="57.6">
       <c r="A1" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>102</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="M1" s="20"/>
       <c r="N1" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P1" s="17"/>
     </row>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>21</v>
@@ -6958,16 +6958,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7052,7 +7052,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2">
         <v>46678</v>
@@ -7071,7 +7071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDD6C0B-4D47-4404-9463-E5E3F5EDE31F}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7088,33 +7088,33 @@
     <col min="7" max="8" width="10.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="57.6">
-      <c r="A1" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="1:8" ht="43.2">
+      <c r="A1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>1757</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>47824</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>42667</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>160611</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>1700</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>16974</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>59422</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>212332</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>94489</v>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>30721</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>45685</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2">
         <v>176862</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>26815</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>30926</v>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>204627</v>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>3938</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>20538</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>4147</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>253491</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>16775</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>99757</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>233961</v>
@@ -7621,7 +7621,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>518</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>14989</v>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>3908</v>
@@ -7690,7 +7690,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>17725</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>162055</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>77482</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>38410</v>
@@ -7782,7 +7782,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>3553</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>76452</v>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>367635</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <v>24273</v>
@@ -7874,7 +7874,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
         <v>48700</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>147019</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>89973</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>45313</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
         <v>68938</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
         <v>103859</v>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
         <v>164487</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>4195</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
         <v>37883</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>31999</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
         <v>195752</v>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
         <v>119713</v>
@@ -8150,10 +8150,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47">
         <v>843</v>
@@ -8162,18 +8162,18 @@
         <v>65</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47">
         <v>235</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
         <v>296462</v>
@@ -8196,7 +8196,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
         <v>4389</v>
@@ -8205,7 +8205,7 @@
         <v>716</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49">
@@ -8215,12 +8215,12 @@
         <v>221</v>
       </c>
       <c r="H49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
         <v>7171</v>
@@ -8229,7 +8229,7 @@
         <v>609</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="2">
@@ -8239,12 +8239,12 @@
         <v>387</v>
       </c>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>4494</v>
@@ -8253,7 +8253,7 @@
         <v>1352</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="2">
@@ -8268,7 +8268,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>67</v>
@@ -8277,7 +8277,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52">
@@ -8287,25 +8287,25 @@
         <v>3</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -8325,7 +8325,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54">
@@ -8335,12 +8335,12 @@
         <v>7</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>352</v>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>841</v>
@@ -8372,7 +8372,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56">
@@ -8382,12 +8382,12 @@
         <v>8</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
         <v>10836</v>
@@ -8410,7 +8410,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>85</v>
@@ -8419,7 +8419,7 @@
         <v>16</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58">
@@ -8429,12 +8429,12 @@
         <v>25</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
         <v>17963</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2">
         <v>2188</v>
@@ -8480,7 +8480,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>43</v>
@@ -8489,7 +8489,7 @@
         <v>44</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61">
@@ -8499,36 +8499,36 @@
         <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <v>25</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>594</v>
@@ -8537,7 +8537,7 @@
         <v>70</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63">
@@ -8547,12 +8547,12 @@
         <v>146</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>26</v>
@@ -8561,7 +8561,7 @@
         <v>18</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64">
@@ -8571,12 +8571,12 @@
         <v>8</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>67</v>
@@ -8585,7 +8585,7 @@
         <v>566</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65">
@@ -8600,7 +8600,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2">
         <v>1404</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
         <v>4464</v>
@@ -8632,7 +8632,7 @@
         <v>116</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67">
@@ -8642,7 +8642,7 @@
         <v>734</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -8653,7 +8653,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>3982348</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="6">
         <f>SUM(B2:B67)</f>
@@ -8789,200 +8789,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="43.2">
-      <c r="A1" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>140</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="27">
+        <v>27</v>
+      </c>
+      <c r="B3" s="25">
         <v>99591</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="25">
         <v>12802</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <v>27</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="27">
+      <c r="F3" s="25">
         <v>37256</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <v>9991</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="27">
+        <v>30</v>
+      </c>
+      <c r="B4" s="25">
         <v>8716</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>634</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>10</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <v>2689</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="25">
         <v>303</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="27">
+        <v>36</v>
+      </c>
+      <c r="B5" s="25">
         <v>28988</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>20017</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>77</v>
+      <c r="D5" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <v>8692</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="25">
         <v>5843</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>77</v>
+      <c r="H5" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="27">
+        <v>38</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="25">
         <v>901</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>77</v>
+      <c r="D6" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="F6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="25">
         <v>618</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>77</v>
+      <c r="H6" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="27">
+        <v>44</v>
+      </c>
+      <c r="B7" s="25">
         <v>38364</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>11164</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>77</v>
+      <c r="D7" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <v>10059</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="25">
         <v>4375</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>77</v>
+      <c r="H7" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="27">
+        <v>113</v>
+      </c>
+      <c r="B8" s="25">
         <v>175659</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>45518</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>37</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="27">
+      <c r="F8" s="25">
         <v>58696</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="25">
         <v>21130</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="25">
         <v>28</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="24">
         <f>SUM(B3:B7) -B8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="24">
         <f>SUM(C3:C7) -C8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="24">
         <f>SUM(D3:D7) -D8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="24">
         <f>SUM(F3:F7) -F8</f>
         <v>0</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="24">
         <f>SUM(G3:G7) -G8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="24">
         <f>SUM(H3:H7) -H8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="7" customFormat="1">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -8991,312 +8991,312 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="27">
+        <v>114</v>
+      </c>
+      <c r="B10" s="25">
         <v>119427</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>45639</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>168</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="27">
+      <c r="F10" s="25">
         <v>19539</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <v>13966</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="25">
         <v>1231</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="27">
+        <v>115</v>
+      </c>
+      <c r="B11" s="25">
         <v>402078</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>104541</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>928</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="27">
+      <c r="F11" s="25">
         <v>87789</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="25">
         <v>37686</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="25">
         <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="27">
+        <v>116</v>
+      </c>
+      <c r="B12" s="25">
         <v>14859</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <v>13375</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>33</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="27">
+      <c r="F12" s="25">
         <v>6858</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="25">
         <v>2717</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="25">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="27">
+        <v>117</v>
+      </c>
+      <c r="B13" s="25">
         <v>116377</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>58969</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>428</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="27">
+      <c r="F13" s="25">
         <v>27547</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="25">
         <v>9855</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="25">
         <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="27">
+        <v>118</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="25">
         <v>12</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>77</v>
+      <c r="D14" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="27">
+      <c r="F14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="25">
         <v>1</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>77</v>
+      <c r="H14" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="27">
+        <v>119</v>
+      </c>
+      <c r="B15" s="25">
         <v>198827</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="25">
         <v>53817</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>140</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="27">
+      <c r="F15" s="25">
         <v>38541</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <v>17842</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="25">
         <v>1443</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="27">
+        <v>120</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="25">
         <v>6</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="27">
+      <c r="F16" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="25">
         <v>7</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="27">
+        <v>121</v>
+      </c>
+      <c r="B17" s="25">
         <v>279211</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <v>82720</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="25">
         <v>1075</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="27">
+      <c r="F17" s="25">
         <v>63164</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="25">
         <v>29124</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="25">
         <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="27">
+        <v>122</v>
+      </c>
+      <c r="B18" s="25">
         <v>1600568</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <v>370800</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>2772</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="27">
+      <c r="F18" s="25">
         <v>361325</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <v>138514</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="25">
         <v>1649</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="27">
+        <v>123</v>
+      </c>
+      <c r="B19" s="25">
         <v>129</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="25">
         <v>9</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="25">
         <v>5</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="27">
+      <c r="F19" s="25">
         <v>102</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="25">
         <v>1</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>77</v>
+      <c r="H19" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="27">
+        <v>124</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="25">
         <v>5</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>77</v>
+      <c r="D20" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>77</v>
+      <c r="F20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="27">
+        <v>113</v>
+      </c>
+      <c r="B21" s="25">
         <v>2731476</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="25">
         <v>729887</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="25">
         <v>5555</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="27">
+      <c r="F21" s="25">
         <v>604865</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="25">
         <v>257713</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="25">
         <v>5636</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="24">
         <f>SUM(B10:B20) -B21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="24">
         <f>SUM(C10:C20) -C21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="24">
         <f>SUM(D10:D20) -D21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="24">
         <f>SUM(F10:F20) -F21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="24">
         <f>SUM(G10:G20) -G21</f>
         <v>-8000</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="24">
         <f>SUM(H10:H20) -H21</f>
         <v>0</v>
       </c>
@@ -9312,241 +9312,241 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="27">
+        <v>125</v>
+      </c>
+      <c r="B23" s="25">
         <v>646679</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="25">
         <v>154935</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>2242</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="24">
+      <c r="F23" s="22">
         <v>146858</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="22">
         <v>73575</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="22">
         <v>814</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="27">
+        <v>126</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="25">
         <v>37</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>77</v>
+      <c r="F24" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="27">
+        <v>127</v>
+      </c>
+      <c r="B25" s="25">
         <v>99289</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="25">
         <v>64504</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="25">
         <v>1079</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <v>15345</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <v>17232</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="27">
+        <v>128</v>
+      </c>
+      <c r="B26" s="25">
         <v>26291</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="25">
         <v>51878</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="25">
         <v>132</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="24">
+      <c r="F26" s="22">
         <v>4419</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="22">
         <v>9920</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="22">
         <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="27">
+        <v>132</v>
+      </c>
+      <c r="B27" s="25">
         <v>13016</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="25">
         <v>9367</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="25">
         <v>32</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="24">
+      <c r="F27" s="22">
         <v>4332</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="22">
         <v>3911</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="22">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="27">
+        <v>129</v>
+      </c>
+      <c r="B28" s="25">
         <v>247636</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="25">
         <v>87081</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="25">
         <v>1467</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="24">
+      <c r="F28" s="22">
         <v>87173</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="22">
         <v>49776</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="22">
         <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="27">
+        <v>65</v>
+      </c>
+      <c r="B29" s="25">
         <v>29272</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="25">
         <v>38839</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="25">
         <v>580</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="24">
+      <c r="F29" s="22">
         <v>5398</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="22">
         <v>14110</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="22">
         <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="27">
+        <v>130</v>
+      </c>
+      <c r="B30" s="25">
         <v>1787</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="25">
         <v>2669</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="25">
         <v>40</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="24">
+      <c r="F30" s="22">
         <v>654</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="22">
         <v>825</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="27">
+        <v>131</v>
+      </c>
+      <c r="B31" s="25">
         <v>538</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="25">
         <v>980</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>77</v>
+      <c r="D31" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="24">
+      <c r="F31" s="22">
         <v>121</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="22">
         <v>471</v>
       </c>
-      <c r="H31" s="25" t="s">
-        <v>77</v>
+      <c r="H31" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="27">
+        <v>113</v>
+      </c>
+      <c r="B32" s="25">
         <v>1064508</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="25">
         <v>410253</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="25">
         <v>5609</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="24">
+      <c r="F32" s="22">
         <v>264300</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="22">
         <v>169820</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="22">
         <v>2111</v>
       </c>
       <c r="J32" s="6">
@@ -9582,7 +9582,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2">
         <v>10705</v>
@@ -9590,14 +9590,14 @@
       <c r="C34" s="2">
         <v>2736</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="27">
         <v>0</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="24">
+      <c r="F34" s="22">
         <v>1027</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="22">
         <v>1871</v>
       </c>
       <c r="H34" s="4">
@@ -9606,22 +9606,22 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="29">
-        <v>0</v>
-      </c>
-      <c r="C35" s="29">
-        <v>0</v>
-      </c>
-      <c r="D35" s="29">
+        <v>134</v>
+      </c>
+      <c r="B35" s="27">
+        <v>0</v>
+      </c>
+      <c r="C35" s="27">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27">
         <v>0</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="24">
+      <c r="F35" s="22">
         <v>94005</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="22">
         <v>16729</v>
       </c>
       <c r="H35">
@@ -9636,25 +9636,25 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="27">
+        <v>68</v>
+      </c>
+      <c r="B37" s="25">
         <v>3982348</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="25">
         <v>1188394</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="25">
         <v>11201</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="24">
+      <c r="F37" s="22">
         <v>1022893</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="22">
         <v>467263</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="22">
         <v>7776</v>
       </c>
       <c r="J37" s="6">
@@ -9683,7 +9683,7 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="B38" s="24"/>
+      <c r="B38" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration-coarse.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration-coarse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFACA79-BA0C-43B7-A052-171EB6DD50DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F93FC0-4DE6-4071-810C-2DB1D93FCFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75540" yWindow="1335" windowWidth="22695" windowHeight="22200" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
+    <workbookView xWindow="57675" yWindow="945" windowWidth="25995" windowHeight="22200" activeTab="6" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="145">
   <si>
     <t>ЦСК, "Ежегодник России" 1916</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>Распределение прямых переселенцев по направлениям миграции и обратных по губерниям временного водворения</t>
+  </si>
+  <si>
+    <t>Исправленные опечатки помечены синим цветом</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +531,10 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
@@ -569,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -637,6 +644,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -959,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3D8DA3-C95A-4A72-832D-39A8124B8B93}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1005,6 +1018,11 @@
     <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1042,39 +1060,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="10"/>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
       <c r="O1" s="10"/>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="T1" s="31" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="T1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="X1" s="31" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="X1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="28.8">
       <c r="A2" s="14" t="s">
@@ -6392,18 +6410,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="5"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="1" t="s">
@@ -7075,7 +7093,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8765,10 +8783,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78787F9-C6E2-4455-9C98-EC045ED3CD33}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37:T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8788,7 +8806,7 @@
     <col min="16" max="16" width="1.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.2">
+    <row r="1" spans="1:20" ht="43.2">
       <c r="A1" s="28" t="s">
         <v>71</v>
       </c>
@@ -8811,8 +8829,17 @@
       <c r="H1" s="29" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -8836,7 +8863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -8860,7 +8887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -8884,7 +8911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -8908,7 +8935,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -8932,7 +8959,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -8979,8 +9006,20 @@
         <f>SUM(H3:H7) -H8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="7" customFormat="1">
+      <c r="R8" s="2">
+        <f>SUM(B8:D8)</f>
+        <v>221214</v>
+      </c>
+      <c r="S8" s="2">
+        <f>SUM(F8:H8)</f>
+        <v>79854</v>
+      </c>
+      <c r="T8" s="2">
+        <f>R8-S8</f>
+        <v>141360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="7" customFormat="1">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="12"/>
@@ -8989,7 +9028,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -9013,7 +9052,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -9030,14 +9069,14 @@
       <c r="F11" s="25">
         <v>87789</v>
       </c>
-      <c r="G11" s="25">
-        <v>37686</v>
+      <c r="G11" s="32">
+        <v>35686</v>
       </c>
       <c r="H11" s="25">
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -9061,7 +9100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -9078,14 +9117,14 @@
       <c r="F13" s="25">
         <v>27547</v>
       </c>
-      <c r="G13" s="25">
-        <v>9855</v>
+      <c r="G13" s="31">
+        <v>19855</v>
       </c>
       <c r="H13" s="25">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -9109,7 +9148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -9133,7 +9172,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -9157,7 +9196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -9181,7 +9220,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -9205,7 +9244,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -9229,7 +9268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -9253,7 +9292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -9294,14 +9333,26 @@
       </c>
       <c r="O21" s="24">
         <f>SUM(G10:G20) -G21</f>
-        <v>-8000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="24">
         <f>SUM(H10:H20) -H21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="7" customFormat="1">
+      <c r="R21" s="2">
+        <f>SUM(B21:D21)</f>
+        <v>3466918</v>
+      </c>
+      <c r="S21" s="2">
+        <f>SUM(F21:H21)</f>
+        <v>868214</v>
+      </c>
+      <c r="T21" s="2">
+        <f>R21-S21</f>
+        <v>2598704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="7" customFormat="1">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -9310,7 +9361,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -9334,7 +9385,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -9358,7 +9409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -9382,7 +9433,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -9406,7 +9457,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -9430,7 +9481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>129</v>
       </c>
@@ -9454,7 +9505,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -9478,7 +9529,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -9502,7 +9553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -9526,7 +9577,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -9573,14 +9624,26 @@
         <f>SUM(H23:H31) -H32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" s="7" customFormat="1">
+      <c r="R32" s="2">
+        <f>SUM(B32:D32)</f>
+        <v>1480370</v>
+      </c>
+      <c r="S32" s="2">
+        <f>SUM(F32:H32)</f>
+        <v>436231</v>
+      </c>
+      <c r="T32" s="2">
+        <f>R32-S32</f>
+        <v>1044139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="7" customFormat="1">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -9604,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -9628,13 +9691,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1">
+    <row r="36" spans="1:20" s="7" customFormat="1">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -9681,8 +9744,20 @@
         <f>H8+H21+H32 +H34+H35-H37</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="R37" s="2">
+        <f>SUM(B37:D37)</f>
+        <v>5181943</v>
+      </c>
+      <c r="S37" s="2">
+        <f>SUM(F37:H37)</f>
+        <v>1497932</v>
+      </c>
+      <c r="T37" s="2">
+        <f>R37-S37</f>
+        <v>3684011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="B38" s="22"/>
     </row>
   </sheetData>
